--- a/Reporte Casa de Fuego.xlsx
+++ b/Reporte Casa de Fuego.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="Consulta_desde_BDALIANZA" localSheetId="0" hidden="1">'Reporte Casa de Fuego'!$A$1:$F$16</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -326,15 +326,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla_Consulta_desde_BDALIANZA" displayName="Tabla_Consulta_desde_BDALIANZA" ref="A1:F16" tableType="queryTable" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla_Consulta_desde_BDALIANZA" displayName="Tabla_Consulta_desde_BDALIANZA" ref="A1:F16" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:F16"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="PART_ID" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" uniqueName="2" name="DESCRIPTION" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" uniqueName="3" name="CANT PEDIDOS" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" uniqueName="4" name="03 COMER" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" uniqueName="5" name="CANT VENDIDA" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" uniqueName="6" name="STOCK TIENDA" queryTableFieldId="6" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="1" name="PART_ID" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" uniqueName="2" name="DESCRIPTION" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" uniqueName="3" name="CANT PEDIDOS" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" uniqueName="4" name="03 COMER" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="5" uniqueName="5" name="CANT VENDIDA" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="6" uniqueName="6" name="STOCK TIENDA" queryTableFieldId="6" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -606,17 +606,17 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -674,10 +674,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -731,13 +731,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -754,10 +754,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
